--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3060.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3060.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1201634649159814</v>
+        <v>1.681432485580444</v>
       </c>
       <c r="B1">
-        <v>0.1110337623175411</v>
+        <v>3.312968254089355</v>
       </c>
       <c r="C1">
-        <v>0.1093295469861926</v>
+        <v>5.945855140686035</v>
       </c>
       <c r="D1">
-        <v>0.1359251405856418</v>
+        <v>1.82273006439209</v>
       </c>
       <c r="E1">
-        <v>0.2038402693014543</v>
+        <v>0.8992128968238831</v>
       </c>
     </row>
   </sheetData>
